--- a/july2025/10-7-2025/bosta-completed.xlsx
+++ b/july2025/10-7-2025/bosta-completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\10-7-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DBAF5B-CA5F-468E-BE55-B4C27081B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C6806-778E-4E21-9724-50D74575D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +565,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AI3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,323 +576,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>33871418</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>70648</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>201011237897</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>45846</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>45847</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>90</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>12</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
         <v>14.28</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>116.28</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>-115.28</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="2">
         <v>45848</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>81654647</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>70603</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>201066655451</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>45846</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>45847</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>4680</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>90</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <v>26.8</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>46.8</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
         <v>22.9</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>186.5</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>4493.5</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="2">
         <v>45848</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
